--- a/midterm/prb6/prb6.xlsx
+++ b/midterm/prb6/prb6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DanYell\Documents\cis5_spring2022\cis5_github\midterm\prb6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A683E2E9-01C8-4170-B506-FC4AD76269A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85B8581F-B004-4C4A-8423-5AA7D3C41825}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{4EB24BD6-6DEB-4232-97EF-DED3319AB2A0}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="12495" xr2:uid="{4EB24BD6-6DEB-4232-97EF-DED3319AB2A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,17 +35,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>(1*2*3) =</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>x^nTerms =</t>
   </si>
   <si>
-    <t>(x^nTerm)  / (1*2*3) =</t>
-  </si>
-  <si>
     <t>f(x)=x-((x^3)/(3!))+x^5/5!-x^7/7!+…</t>
   </si>
   <si>
@@ -55,29 +49,36 @@
     <t xml:space="preserve">nTerms = </t>
   </si>
   <si>
-    <t>????</t>
-  </si>
-  <si>
-    <t>(x -(x^nTerms)  / (1*2*3) =</t>
-  </si>
-  <si>
     <t xml:space="preserve">  = 5! = (1*2*3*4*5)</t>
   </si>
   <si>
-    <t xml:space="preserve">x^5 = </t>
-  </si>
-  <si>
-    <t xml:space="preserve">!5 = </t>
+    <t>(x^nTerm)  / (n!) =</t>
+  </si>
+  <si>
+    <t>(x -(x^nTerms)  / (n!) =</t>
+  </si>
+  <si>
+    <t xml:space="preserve">odds increatment </t>
+  </si>
+  <si>
+    <t>mulitply by</t>
+  </si>
+  <si>
+    <t>(n!) =</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="171" formatCode="0.00000"/>
+  <numFmts count="5">
+    <numFmt numFmtId="164" formatCode="0.00000"/>
+    <numFmt numFmtId="165" formatCode="0.000000"/>
+    <numFmt numFmtId="166" formatCode="0.00000000"/>
+    <numFmt numFmtId="172" formatCode="0.00000000000000"/>
+    <numFmt numFmtId="173" formatCode="0.0000000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,21 +93,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -121,38 +120,52 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -467,157 +480,283 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BF33B5B-DD82-4A2B-878B-2CB8427B7FD4}">
-  <dimension ref="H1:P11"/>
+  <dimension ref="G1:P11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="9" max="9" width="11" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.85546875" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" customWidth="1"/>
+    <col min="14" max="14" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="8:16" s="5" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="H1" s="4" t="s">
+    <row r="1" spans="7:16" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="H1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+    </row>
+    <row r="2" spans="7:16" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="H2" s="4"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+    </row>
+    <row r="3" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="I3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="1">
+        <v>1</v>
+      </c>
+      <c r="K3" s="1">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="I4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-    </row>
-    <row r="2" spans="8:16" s="5" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="H2" s="6"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-    </row>
-    <row r="3" spans="8:16" x14ac:dyDescent="0.25">
-      <c r="I3" s="8" t="s">
+      <c r="J4" s="16">
+        <v>1</v>
+      </c>
+      <c r="K4" s="16">
+        <v>2</v>
+      </c>
+      <c r="L4" s="17">
+        <v>3</v>
+      </c>
+      <c r="M4" s="17">
         <v>4</v>
       </c>
-      <c r="J3" s="2">
-        <v>1</v>
-      </c>
-      <c r="K3" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="8:16" x14ac:dyDescent="0.25">
-      <c r="I4" s="8" t="s">
+      <c r="N4" s="17">
         <v>5</v>
       </c>
-      <c r="J4" s="2">
-        <v>1</v>
-      </c>
-      <c r="K4" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="8:16" x14ac:dyDescent="0.25">
-      <c r="J5" s="2"/>
-    </row>
-    <row r="6" spans="8:16" x14ac:dyDescent="0.25">
-      <c r="I6" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="J6" s="2">
+      <c r="O4" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="I5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1</v>
+      </c>
+      <c r="K5" s="1">
+        <f>J5+2</f>
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <f>K5+2</f>
+        <v>5</v>
+      </c>
+      <c r="M5">
+        <f>L5+2</f>
+        <v>7</v>
+      </c>
+      <c r="N5">
+        <f>M5+2</f>
+        <v>9</v>
+      </c>
+      <c r="O5">
+        <f>N5+2</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="I6" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
         <f>POWER(J3,J4)</f>
         <v>1</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6" s="1">
         <f>POWER(K3,K4)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="8:16" x14ac:dyDescent="0.25">
-      <c r="H7" s="10" t="s">
+      <c r="L6">
+        <f>POWER(1,L5)</f>
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <f>POWER(1,M5)</f>
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <f>POWER(1,N5)</f>
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <f>POWER(1,O5)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="G7" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="13"/>
+      <c r="I7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" s="1">
+        <f>(1)</f>
+        <v>1</v>
+      </c>
+      <c r="K7" s="1">
+        <f>1*2*3</f>
         <v>6</v>
       </c>
-      <c r="I7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="J7" s="2">
-        <f>(1)</f>
-        <v>1</v>
-      </c>
-      <c r="K7" s="2">
-        <f>(1*2*3)</f>
-        <v>6</v>
-      </c>
-      <c r="M7">
+      <c r="L7">
         <f>1*2*3*4*5</f>
         <v>120</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="M7">
+        <f>1*2*3*4*5*6*7</f>
+        <v>5040</v>
+      </c>
+      <c r="N7">
+        <f>1*2*3*4*5*6*7*8*9</f>
+        <v>362880</v>
+      </c>
+      <c r="O7">
+        <f>1*2*3*4*5*6*7*8*9*10*11</f>
+        <v>39916800</v>
+      </c>
+    </row>
+    <row r="8" spans="7:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="I8" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J8" s="10">
+        <f t="shared" ref="J8:O8" si="0">J6/J7</f>
+        <v>1</v>
+      </c>
+      <c r="K8" s="10">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="L8" s="11">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333332E-3</v>
+      </c>
+      <c r="M8" s="11">
+        <f t="shared" si="0"/>
+        <v>1.9841269841269841E-4</v>
+      </c>
+      <c r="N8" s="11">
+        <f t="shared" si="0"/>
+        <v>2.7557319223985893E-6</v>
+      </c>
+      <c r="O8" s="11">
+        <f t="shared" si="0"/>
+        <v>2.505210838544172E-8</v>
+      </c>
+    </row>
+    <row r="9" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="H9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="8:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="I8" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="J8" s="3">
-        <f>J6/J7</f>
-        <v>1</v>
-      </c>
-      <c r="K8" s="3">
-        <f>K6/K7</f>
-        <v>0.16666666666666666</v>
-      </c>
-    </row>
-    <row r="9" spans="8:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="I9" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="J9" s="3">
-        <f>J3-J8</f>
-        <v>0</v>
-      </c>
-      <c r="K9" s="3">
-        <f>K3-K8</f>
+      <c r="I9" s="6">
+        <v>-1</v>
+      </c>
+      <c r="J9" s="10">
+        <f>J8</f>
+        <v>1</v>
+      </c>
+      <c r="K9" s="10">
+        <f>(K8)*I9</f>
+        <v>-0.16666666666666666</v>
+      </c>
+      <c r="L9" s="14">
+        <f>L8</f>
+        <v>8.3333333333333332E-3</v>
+      </c>
+      <c r="M9" s="11">
+        <f>M8*I9</f>
+        <v>-1.9841269841269841E-4</v>
+      </c>
+      <c r="N9" s="11">
+        <f>N8*K9</f>
+        <v>-4.5928865373309819E-7</v>
+      </c>
+      <c r="O9" s="11">
+        <f>O8*L9</f>
+        <v>2.0876756987868099E-10</v>
+      </c>
+    </row>
+    <row r="10" spans="7:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="I10" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J10" s="8">
+        <f>J9</f>
+        <v>1</v>
+      </c>
+      <c r="K10" s="8">
+        <f>J10+K9</f>
         <v>0.83333333333333337</v>
       </c>
-    </row>
-    <row r="10" spans="8:16" x14ac:dyDescent="0.25">
-      <c r="I10" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="J10" s="3">
-        <f>POWER(1,5)</f>
-        <v>1</v>
-      </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="8:16" x14ac:dyDescent="0.25">
-      <c r="I11" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="J11">
-        <f>1*2*3*4*5</f>
-        <v>120</v>
-      </c>
-      <c r="K11" s="3">
+      <c r="L10" s="9">
+        <f>K10+L9</f>
+        <v>0.84166666666666667</v>
+      </c>
+      <c r="M10" s="18">
+        <f>L10+M9</f>
+        <v>0.84146825396825398</v>
+      </c>
+      <c r="N10" s="9">
+        <f>M10+N9</f>
+        <v>0.8414677946796002</v>
+      </c>
+      <c r="O10" s="9">
+        <f>N10+O9</f>
+        <v>0.84146779488836776</v>
+      </c>
+    </row>
+    <row r="11" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="K11" s="2">
         <f>K3-K6/(1*2*3)</f>
         <v>0.83333333333333337</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="H1:P1"/>
+    <mergeCell ref="G7:H7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/midterm/prb6/prb6.xlsx
+++ b/midterm/prb6/prb6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DanYell\Documents\cis5_spring2022\cis5_github\midterm\prb6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85B8581F-B004-4C4A-8423-5AA7D3C41825}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A33B7F01-B88F-422A-81A7-F1904DD9FB6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="12495" xr2:uid="{4EB24BD6-6DEB-4232-97EF-DED3319AB2A0}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{4EB24BD6-6DEB-4232-97EF-DED3319AB2A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -71,12 +71,15 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="8">
     <numFmt numFmtId="164" formatCode="0.00000"/>
     <numFmt numFmtId="165" formatCode="0.000000"/>
     <numFmt numFmtId="166" formatCode="0.00000000"/>
-    <numFmt numFmtId="172" formatCode="0.00000000000000"/>
-    <numFmt numFmtId="173" formatCode="0.0000000"/>
+    <numFmt numFmtId="167" formatCode="0.00000000000000"/>
+    <numFmt numFmtId="168" formatCode="0.0000000"/>
+    <numFmt numFmtId="170" formatCode="0.0000000000000"/>
+    <numFmt numFmtId="172" formatCode="0.00000000000"/>
+    <numFmt numFmtId="183" formatCode="0.0000000E+00"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -120,7 +123,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -151,21 +154,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -483,34 +489,35 @@
   <dimension ref="G1:P11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="9" max="9" width="11" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.85546875" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" customWidth="1"/>
-    <col min="14" max="14" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.3984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.1328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.86328125" customWidth="1"/>
+    <col min="13" max="13" width="14.3984375" customWidth="1"/>
+    <col min="14" max="14" width="12.1328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.3984375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="7:16" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="H1" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-    </row>
-    <row r="2" spans="7:16" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="7:16" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.45">
+      <c r="H1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+    </row>
+    <row r="2" spans="7:16" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.45">
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
       <c r="J2" s="4"/>
@@ -521,7 +528,7 @@
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
     </row>
-    <row r="3" spans="7:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="7:16" x14ac:dyDescent="0.45">
       <c r="I3" s="6" t="s">
         <v>2</v>
       </c>
@@ -543,31 +550,37 @@
       <c r="O3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="7:16" x14ac:dyDescent="0.25">
-      <c r="I4" s="15" t="s">
+      <c r="P3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="7:16" x14ac:dyDescent="0.45">
+      <c r="I4" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="16">
-        <v>1</v>
-      </c>
-      <c r="K4" s="16">
+      <c r="J4" s="14">
+        <v>1</v>
+      </c>
+      <c r="K4" s="14">
         <v>2</v>
       </c>
-      <c r="L4" s="17">
+      <c r="L4" s="15">
         <v>3</v>
       </c>
-      <c r="M4" s="17">
+      <c r="M4" s="15">
         <v>4</v>
       </c>
-      <c r="N4" s="17">
+      <c r="N4" s="15">
         <v>5</v>
       </c>
-      <c r="O4" s="17">
+      <c r="O4" s="15">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="P4" s="15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="7:16" x14ac:dyDescent="0.45">
       <c r="I5" s="6" t="s">
         <v>7</v>
       </c>
@@ -594,8 +607,11 @@
         <f>N5+2</f>
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="P5">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="7:16" x14ac:dyDescent="0.45">
       <c r="I6" s="6" t="s">
         <v>0</v>
       </c>
@@ -623,12 +639,15 @@
         <f>POWER(1,O5)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="7:16" x14ac:dyDescent="0.25">
-      <c r="G7" s="13" t="s">
+      <c r="P6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="7:16" x14ac:dyDescent="0.45">
+      <c r="G7" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="13"/>
+      <c r="H7" s="18"/>
       <c r="I7" s="6" t="s">
         <v>9</v>
       </c>
@@ -656,8 +675,11 @@
         <f>1*2*3*4*5*6*7*8*9*10*11</f>
         <v>39916800</v>
       </c>
-    </row>
-    <row r="8" spans="7:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="P7" s="21">
+        <v>2.432902E+18</v>
+      </c>
+    </row>
+    <row r="8" spans="7:16" ht="28.5" x14ac:dyDescent="0.45">
       <c r="I8" s="7" t="s">
         <v>5</v>
       </c>
@@ -685,8 +707,12 @@
         <f t="shared" si="0"/>
         <v>2.505210838544172E-8</v>
       </c>
-    </row>
-    <row r="9" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="P8" s="21">
+        <f>P6/P7</f>
+        <v>4.110317637126362E-19</v>
+      </c>
+    </row>
+    <row r="9" spans="7:16" x14ac:dyDescent="0.45">
       <c r="H9" t="s">
         <v>8</v>
       </c>
@@ -701,7 +727,7 @@
         <f>(K8)*I9</f>
         <v>-0.16666666666666666</v>
       </c>
-      <c r="L9" s="14">
+      <c r="L9" s="12">
         <f>L8</f>
         <v>8.3333333333333332E-3</v>
       </c>
@@ -718,7 +744,7 @@
         <v>2.0876756987868099E-10</v>
       </c>
     </row>
-    <row r="10" spans="7:16" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="7:16" ht="42.75" x14ac:dyDescent="0.45">
       <c r="I10" s="7" t="s">
         <v>6</v>
       </c>
@@ -734,23 +760,39 @@
         <f>K10+L9</f>
         <v>0.84166666666666667</v>
       </c>
-      <c r="M10" s="18">
+      <c r="M10" s="20">
         <f>L10+M9</f>
         <v>0.84146825396825398</v>
       </c>
-      <c r="N10" s="9">
+      <c r="N10" s="16">
         <f>M10+N9</f>
         <v>0.8414677946796002</v>
       </c>
-      <c r="O10" s="9">
+      <c r="O10" s="11">
         <f>N10+O9</f>
         <v>0.84146779488836776</v>
       </c>
-    </row>
-    <row r="11" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="P10" s="21">
+        <f>M11+P8</f>
+        <v>0.841468252968254</v>
+      </c>
+    </row>
+    <row r="11" spans="7:16" x14ac:dyDescent="0.45">
       <c r="K11" s="2">
         <f>K3-K6/(1*2*3)</f>
         <v>0.83333333333333337</v>
+      </c>
+      <c r="L11" s="19">
+        <f>K10+L9</f>
+        <v>0.84166666666666667</v>
+      </c>
+      <c r="M11" s="20">
+        <f>M10-0.000000001</f>
+        <v>0.841468252968254</v>
+      </c>
+      <c r="P11" s="21">
+        <f>P10-0.00000001</f>
+        <v>0.84146824296825395</v>
       </c>
     </row>
   </sheetData>
